--- a/va_facility_data_2025-02-20/Coatesville VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Coatesville%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Coatesville VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Coatesville%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rbc5cdb2acfcc4353a4eb4abff0526604"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R1929b56fb10c4317bbae603eea593e4d"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Re0ede032eada471e8b50cef51dbf1e3c"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R8761d0c34a3c4dcf9c7014965ac87c2c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R9797bd53e6aa4b5fa13a7f128c805710"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R38e4b983f2cb456c88879a79d68a648f"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R1cd01f241910435d8ba8d402fea28587"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R87e1127c9a8741d3bc5df484eaca7f81"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R005b72b3ad144d6e88e9dd27f0d2b21b"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R9c56eddca3cb48acb77a0fa209dcb53b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ree632fa4601a415d8eb99a726a009c7d"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R65353d106a1745208607e730ccc3b8a5"/>
   </x:sheets>
 </x:workbook>
 </file>
